--- a/curso-completo/excel_365_do_zero_ao_avancado/4.basico_expressoes_e_funcoes/52.expressoes_comparacao/44+-+Expressões+Comparação.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/4.basico_expressoes_e_funcoes/52.expressoes_comparacao/44+-+Expressões+Comparação.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Capítulo 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\4.basico_expressoes_e_funcoes\52.expressoes_comparacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4022B3-B1EC-4EDD-A7F1-572B58BD749B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7152EC4-A15B-40A2-BF11-0F8B71F3BA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Expressões Aritiméticas" sheetId="1" r:id="rId1"/>
-    <sheet name="Informações" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
+    <sheet name="Informações" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Material Curso de Excel do Básico ao Expert 2022</t>
   </si>
@@ -139,6 +132,15 @@
   </si>
   <si>
     <t>Para colocar o simbolo use SHIFT e depois o sinal &gt; ou &lt;</t>
+  </si>
+  <si>
+    <t>CNH</t>
+  </si>
+  <si>
+    <t>Idade:</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -204,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +255,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -554,6 +562,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -572,25 +589,45 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Moeda 2" xfId="2" xr:uid="{BAD11850-028B-4204-91A5-6985439D5598}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -902,103 +939,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5155D-10BE-4AB6-89E0-20C2DF17DBAD}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="30" t="s">
+    <row r="2" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="33"/>
       <c r="E6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="35" t="s">
+    <row r="7" spans="1:5" ht="4.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="29" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="36" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="37" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="31" t="s">
+    <row r="15" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>8</v>
       </c>
@@ -1012,7 +1049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>16</v>
       </c>
@@ -1022,12 +1059,15 @@
       <c r="D18" s="7">
         <v>14</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12" t="b">
+        <f>B18&lt;&gt;14</f>
+        <v>1</v>
+      </c>
       <c r="G18" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>88</v>
       </c>
@@ -1037,9 +1077,12 @@
       <c r="D19" s="14">
         <v>5</v>
       </c>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E19" s="15" t="b">
+        <f>B19&lt;=5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>68</v>
       </c>
@@ -1049,9 +1092,12 @@
       <c r="D20" s="7">
         <v>34</v>
       </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E20" s="12" t="b">
+        <f>B20&gt;=D20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="13">
         <v>47</v>
       </c>
@@ -1061,9 +1107,12 @@
       <c r="D21" s="14">
         <v>12</v>
       </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E21" s="15" t="b">
+        <f>B21&gt;D21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>59</v>
       </c>
@@ -1073,9 +1122,12 @@
       <c r="D22" s="7">
         <v>7</v>
       </c>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E22" s="12" t="b">
+        <f>B22&lt;D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="13">
         <v>81</v>
       </c>
@@ -1085,9 +1137,12 @@
       <c r="D23" s="14">
         <v>79</v>
       </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E23" s="15" t="b">
+        <f>B23&lt;&gt;D23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>2</v>
       </c>
@@ -1097,9 +1152,12 @@
       <c r="D24" s="7">
         <v>3</v>
       </c>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E24" s="12" t="b">
+        <f>B24&lt;&gt;D24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="13">
         <v>29</v>
       </c>
@@ -1109,9 +1167,12 @@
       <c r="D25" s="14">
         <v>6</v>
       </c>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E25" s="15" t="b">
+        <f>B25&gt;=D25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="11">
         <v>5</v>
       </c>
@@ -1121,9 +1182,12 @@
       <c r="D26" s="7">
         <v>3</v>
       </c>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E26" s="12" t="b">
+        <f>B26&lt;D26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="13">
         <v>41</v>
       </c>
@@ -1133,9 +1197,12 @@
       <c r="D27" s="14">
         <v>77</v>
       </c>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E27" s="15" t="b">
+        <f>B27&lt;=D27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="11">
         <v>13</v>
       </c>
@@ -1145,9 +1212,12 @@
       <c r="D28" s="7">
         <v>7</v>
       </c>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E28" s="12" t="b">
+        <f>B28&gt;=D28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="13">
         <v>16</v>
       </c>
@@ -1157,9 +1227,12 @@
       <c r="D29" s="14">
         <v>14</v>
       </c>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E29" s="15" t="b">
+        <f>B29&lt;D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="11">
         <v>4</v>
       </c>
@@ -1169,9 +1242,12 @@
       <c r="D30" s="7">
         <v>4</v>
       </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E30" s="12" t="b">
+        <f>B30&lt;=D30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="16">
         <v>26</v>
       </c>
@@ -1181,18 +1257,21 @@
       <c r="D31" s="17">
         <v>5</v>
       </c>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="32" t="s">
+      <c r="E31" s="18" t="b">
+        <f>B31&lt;=D31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
         <v>23</v>
       </c>
@@ -1202,12 +1281,15 @@
       <c r="D34" s="20">
         <v>12</v>
       </c>
-      <c r="E34" s="21"/>
+      <c r="E34" s="21" t="b">
+        <f>B34&gt;D34</f>
+        <v>1</v>
+      </c>
       <c r="F34" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="22" t="s">
         <v>26</v>
       </c>
@@ -1217,10 +1299,13 @@
       <c r="D35" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="23"/>
+      <c r="E35" s="23" t="b">
+        <f>B35&lt;D35</f>
+        <v>0</v>
+      </c>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="24">
         <v>159</v>
       </c>
@@ -1230,7 +1315,10 @@
       <c r="D36" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="27"/>
+      <c r="E36" s="27" t="b">
+        <f>B36&gt;=D36</f>
+        <v>0</v>
+      </c>
       <c r="F36" s="28"/>
     </row>
   </sheetData>
@@ -1246,6 +1334,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D534E4E-7B46-48DA-9647-FD78D48E1DB1}">
+  <dimension ref="B3:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="b">
+        <f>C5&gt;=18</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4B1D2F-C6B2-47F1-A594-6C85C8DA4CAF}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -1253,29 +1389,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1283,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1291,18 +1427,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
